--- a/Output/March/productivity_agent/productivity_agent_2022-03-21.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-21.xlsx
@@ -21472,7 +21472,7 @@
         <v>130</v>
       </c>
       <c r="N64">
-        <v>874</v>
+        <v>1034</v>
       </c>
       <c r="O64">
         <v>130</v>
@@ -21586,7 +21586,7 @@
         <v>0</v>
       </c>
       <c r="AZ64">
-        <v>485.5555555555556</v>
+        <v>574.4444444444445</v>
       </c>
       <c r="BA64">
         <v>243.75</v>
@@ -21700,7 +21700,7 @@
         <v>0</v>
       </c>
       <c r="CL64">
-        <v>0.5712418300653596</v>
+        <v>0.6758169934640523</v>
       </c>
       <c r="CM64">
         <v>0.3046875</v>
@@ -21745,7 +21745,7 @@
         <v>0</v>
       </c>
       <c r="DA64">
-        <v>0.4184136388933495</v>
+        <v>0.4439659412622609</v>
       </c>
     </row>
     <row r="65" spans="1:105">
@@ -27812,7 +27812,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>2354</v>
+        <v>2401</v>
       </c>
       <c r="O84">
         <v>0</v>
@@ -27926,7 +27926,7 @@
         <v>0</v>
       </c>
       <c r="AZ84">
-        <v>739.4764397905759</v>
+        <v>754.2408376963351</v>
       </c>
       <c r="BA84">
         <v>0</v>
@@ -28040,7 +28040,7 @@
         <v>0</v>
       </c>
       <c r="CL84">
-        <v>0.8699722821065599</v>
+        <v>0.8873421619956884</v>
       </c>
       <c r="CM84">
         <v>0</v>
@@ -28085,7 +28085,7 @@
         <v>0</v>
       </c>
       <c r="DA84">
-        <v>0.7045727745177922</v>
+        <v>0.7123606784117442</v>
       </c>
     </row>
     <row r="85" spans="1:105">
